--- a/framework/configuration.xlsx
+++ b/framework/configuration.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BCBB43-D784-421B-BC20-0C73D505839E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0561670D-E15A-4BE1-9315-47D27641597C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="1" r:id="rId1"/>
@@ -425,14 +425,14 @@
     <t>6411844631:AAHnWMrcWzjr8EmmvWsoiniFn9tTKi4XVnA</t>
   </si>
   <si>
-    <t>https://connectv1.hanet.ai/12661/export-checkin</t>
+    <t>https://connect.hanet.ai/18078/person/hrm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -535,7 +535,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -588,6 +588,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1078,12 +1079,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.25" style="3" customWidth="1"/>
     <col min="2" max="2" width="6.75" style="3" bestFit="1" customWidth="1"/>
@@ -1093,7 +1094,7 @@
     <col min="6" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1110,7 +1111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -1124,7 +1125,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1138,7 +1139,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1152,7 +1153,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1164,7 +1165,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>108</v>
       </c>
@@ -1173,7 +1174,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>40</v>
       </c>
@@ -1185,7 +1186,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -1197,7 +1198,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15">
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>42</v>
       </c>
@@ -1212,7 +1213,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -1226,7 +1227,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
@@ -1240,7 +1241,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
@@ -1254,7 +1255,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>44</v>
       </c>
@@ -1268,7 +1269,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>45</v>
       </c>
@@ -1282,7 +1283,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75">
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>11</v>
       </c>
@@ -1297,7 +1298,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15">
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>16</v>
       </c>
@@ -1306,7 +1307,7 @@
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>27</v>
       </c>
@@ -1320,7 +1321,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>127</v>
       </c>
@@ -1328,7 +1329,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>124</v>
       </c>
@@ -1336,7 +1337,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15">
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>18</v>
       </c>
@@ -1345,7 +1346,7 @@
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
     </row>
-    <row r="21" spans="1:5" ht="15">
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>84</v>
       </c>
@@ -1359,7 +1360,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15">
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>59</v>
       </c>
@@ -1376,7 +1377,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15">
+    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>59</v>
       </c>
@@ -1393,18 +1394,18 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="18" t="s">
         <v>136</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>122</v>
       </c>
@@ -1412,7 +1413,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15">
+    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>62</v>
       </c>
@@ -1421,7 +1422,7 @@
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>130</v>
       </c>
@@ -1429,7 +1430,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15">
+    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>132</v>
       </c>
@@ -1438,7 +1439,7 @@
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>133</v>
       </c>
@@ -1446,7 +1447,7 @@
         <v>-804214108</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>134</v>
       </c>
@@ -1454,7 +1455,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15">
+    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>63</v>
       </c>
@@ -1463,7 +1464,7 @@
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>68</v>
       </c>
@@ -1474,7 +1475,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>69</v>
       </c>
@@ -1488,7 +1489,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>66</v>
       </c>
@@ -1499,7 +1500,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15">
+    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
         <v>17</v>
       </c>
@@ -1508,7 +1509,7 @@
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>100</v>
       </c>
@@ -1522,7 +1523,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15">
+    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>15</v>
       </c>
@@ -1536,7 +1537,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>13</v>
       </c>
@@ -1550,7 +1551,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>29</v>
       </c>
@@ -1564,7 +1565,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>30</v>
       </c>
@@ -1578,7 +1579,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>31</v>
       </c>
@@ -1592,7 +1593,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>70</v>
       </c>
@@ -1606,7 +1607,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>71</v>
       </c>
@@ -1620,7 +1621,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>79</v>
       </c>
@@ -1634,7 +1635,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>73</v>
       </c>
@@ -1648,7 +1649,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>74</v>
       </c>
@@ -1662,7 +1663,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>32</v>
       </c>
@@ -1676,7 +1677,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>46</v>
       </c>
@@ -1690,7 +1691,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>33</v>
       </c>
@@ -1704,7 +1705,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>35</v>
       </c>
@@ -1718,7 +1719,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>34</v>
       </c>
@@ -1732,7 +1733,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>85</v>
       </c>
@@ -1743,7 +1744,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15.75" customHeight="1">
+    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>81</v>
       </c>
@@ -1754,7 +1755,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15.75" customHeight="1">
+    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>82</v>
       </c>
@@ -1765,7 +1766,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15.75" customHeight="1">
+    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>83</v>
       </c>
@@ -1776,7 +1777,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>92</v>
       </c>
@@ -1790,7 +1791,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>93</v>
       </c>
@@ -1804,7 +1805,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>94</v>
       </c>
@@ -1828,18 +1829,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2027,18 +2028,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1650C86-818B-4C5F-85BF-D8BB24902BFD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79E76BC6-FD13-4E9A-B822-542E612CA8CB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79E76BC6-FD13-4E9A-B822-542E612CA8CB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1650C86-818B-4C5F-85BF-D8BB24902BFD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
